--- a/Content/ExcelFiles/Kết quả.xlsx
+++ b/Content/ExcelFiles/Kết quả.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423A088-27A0-461A-803A-3F0E4F4B23E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A996A6-291E-45E4-AB71-00A145295CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
@@ -199,11 +199,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,7 +254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,13 +552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D972BA-AC0C-4832-8CD2-B4FFDC27C874}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +589,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -597,7 +603,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -611,9 +617,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -625,9 +631,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -639,9 +645,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -653,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -667,9 +673,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -681,9 +687,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -695,9 +701,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -709,9 +715,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -723,9 +729,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -737,9 +743,9 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -751,9 +757,9 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -765,9 +771,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -779,9 +785,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -793,9 +799,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -807,9 +813,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -821,9 +827,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -835,9 +841,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -849,9 +855,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -863,9 +869,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -877,9 +883,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -891,7 +897,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -905,7 +911,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -919,7 +925,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -933,7 +939,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -947,9 +953,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -961,9 +967,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -975,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -989,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1003,9 +1009,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -1017,9 +1023,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -1031,9 +1037,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -1045,9 +1051,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -1060,6 +1066,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Content/ExcelFiles/Kết quả.xlsx
+++ b/Content/ExcelFiles/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A996A6-291E-45E4-AB71-00A145295CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8068DBDB-29D9-4930-8E86-7297B80AB805}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>MaHoiDong</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>0802-01</t>
-  </si>
-  <si>
-    <t>0804-01</t>
-  </si>
-  <si>
-    <t>0806-01</t>
-  </si>
-  <si>
-    <t>0807-01</t>
   </si>
   <si>
     <t>DT001</t>
@@ -199,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +204,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,12 +227,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D972BA-AC0C-4832-8CD2-B4FFDC27C874}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,491 +588,491 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>7.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>5.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>7.64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>5.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>7.64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>5.3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>5.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>16</v>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
-        <v>17</v>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>4.7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>6.4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" t="s">
-        <v>16</v>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>4.7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
-        <v>17</v>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>6.4</v>

--- a/Content/ExcelFiles/Kết quả.xlsx
+++ b/Content/ExcelFiles/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC9998-9FF7-4FF7-AA3C-0DBF47609561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20663AEA-E5BA-4E01-8D65-D081607A5E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Content/ExcelFiles/Kết quả.xlsx
+++ b/Content/ExcelFiles/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20663AEA-E5BA-4E01-8D65-D081607A5E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD570E57-E172-47EE-AAA0-94DE1F404E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Content/ExcelFiles/Kết quả.xlsx
+++ b/Content/ExcelFiles/Kết quả.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD570E57-E172-47EE-AAA0-94DE1F404E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB0C793-FE68-4A4C-AF9E-F85323A8CCB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>MaHoiDong</t>
   </si>
@@ -175,13 +176,133 @@
   </si>
   <si>
     <t>TTSX-001</t>
+  </si>
+  <si>
+    <t>Ma_De_Tai</t>
+  </si>
+  <si>
+    <t>Ten_De_Tai</t>
+  </si>
+  <si>
+    <t>Ma Sinh Vien</t>
+  </si>
+  <si>
+    <t>Ma Giang Vien</t>
+  </si>
+  <si>
+    <t>Ma Mon Hoc</t>
+  </si>
+  <si>
+    <t>Xây dựng website quản lý bán hàng ô tô</t>
+  </si>
+  <si>
+    <t>Kiểm thử website mua bán sản phẩm nông sản</t>
+  </si>
+  <si>
+    <t>PT và TKHT bài toán XD website quản lý cửa hàng di động</t>
+  </si>
+  <si>
+    <t>Kiểm thử phần mềm quản lý kho hàng</t>
+  </si>
+  <si>
+    <t>PT và TKHT bài toán XD website quản lý NS-TL công ty Phúc Bình</t>
+  </si>
+  <si>
+    <t>Phân tích và thiết kế hệ thống phầm mềm quản lý bán hàng văn phòng phẩm</t>
+  </si>
+  <si>
+    <t>PT và TKHT bài toán XD website bán hàng ĐT cho cửa hàng FPT Shop</t>
+  </si>
+  <si>
+    <t>PT và TKHT mô tả bài toán XD website đặt Tour du lịch Ivivu.com</t>
+  </si>
+  <si>
+    <t>Kiểm thử phần mềm Smart Office (Module S.Request: Phê duyệt điện tử)</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống quản lý bán hàng Petshop</t>
+  </si>
+  <si>
+    <t>Tìm hiểu kiểm thử ứng dụng Web bằng Katalon Studio và Posman</t>
+  </si>
+  <si>
+    <t>Phân tích và thiết kế dữ liệu hệ thống xây dựng bài toán thiết kế website quản lý nhân sự cho công ty cổ phần thuwng mại và dịch vụ GMAX</t>
+  </si>
+  <si>
+    <t>Phân tích thiêt kế hệ thống quản lý bán hàng Take away</t>
+  </si>
+  <si>
+    <t>Tìm hiểu quy trình QLNS và TL tại công ty CP Everflow</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống quản lý bán hàng điện thoại di động</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế hệ thống website quản lý bán hàng handmade</t>
+  </si>
+  <si>
+    <t>PT và TKHT bài toán XD website bán đồng hồ</t>
+  </si>
+  <si>
+    <t>PT và TKHT mô tả bài toán XD phần mềm quản lý cửa hàng thuốc Trần Lê Nhân</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho website bán sách</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD trang TMĐT bất động sản VinHomes Land</t>
+  </si>
+  <si>
+    <t>XD hệ thống quản lý thủ tục hành chính công</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD website quản lý bán hàng máy tính, áp dụng cho công ty TNHH Tin học Mai Hoàng</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng và áp dụng kĩ thuật SEO website cho công ty CP đầu tư và XD Toàn Gia Phát</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng hệ thống tiếp nhận, xử lý thủ tục hành chính cho SV trường ĐH Mỏ địa chất</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD Website quản lý sách, ứng dụng cho Bookstore</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán XD website quản lý tour du lịch cho Cty TNHH xúc tiến TM và du lịch Ats</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD website quản lý bán hàng phụ kiện thú cưng the Hamstershop</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán hàng đồ gia dụng</t>
+  </si>
+  <si>
+    <t>PTTK và XD CSDL cho phần mềm quản lý kho thuốc của công ty Dược phẩm Ích Nhân</t>
+  </si>
+  <si>
+    <t>PT và TKHT cho bài toán xây dựng website tìm kiếm phòng trọ trực tuyến</t>
+  </si>
+  <si>
+    <t>XD phần mềm QLBH cho cửa hàng giày dép có sử dụng API của Facebook</t>
+  </si>
+  <si>
+    <t>Nghiên cứu XD phần mềm quản lý NS-TL, áp dụng cho công ty CP EverFlow</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán VPP cho công ty CP đầu tư TM và CN BKT</t>
+  </si>
+  <si>
+    <t>XD mô hình giới thiệu và bán điện thoại di động đề mô cho công ty CP thế giới di động</t>
+  </si>
+  <si>
+    <t>PTTK website quản lý đồ án tốt nghiệp sinh viên Khoa Công nghệ Thông tin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,16 +322,52 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -233,13 +390,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,12 +734,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -599,7 +773,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -613,7 +787,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -627,7 +801,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -641,7 +815,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -655,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -669,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -683,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -697,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -711,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -725,7 +899,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -739,7 +913,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -753,7 +927,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -767,7 +941,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -781,7 +955,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -795,7 +969,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15.6">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -809,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15.6">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -823,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15.6">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -837,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15.6">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -851,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15.6">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -865,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15.6">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -879,7 +1053,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15.6">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -893,7 +1067,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15.6">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -907,7 +1081,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15.6">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -921,7 +1095,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15.6">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -935,7 +1109,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15.6">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -949,7 +1123,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15.6">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -963,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15.6">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -977,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15.6">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -991,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15.6">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1005,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15.6">
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -1019,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15.6">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -1033,7 +1207,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15.6">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1221,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15.6">
       <c r="B35" t="s">
         <v>46</v>
       </c>
@@ -1061,7 +1235,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15.6">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1079,4 +1253,631 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EFF073-54F9-42A2-A20F-D6FB839BF2C7}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1721030108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1821050621</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1821050975</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1821051019</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1821050899</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1821050025</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1821050962</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1821050816</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1821051004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1721050319</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1721050290</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1621050322</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1621050260</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1621050262</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1621050298</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1621050351</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1621050152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1621050525</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1621050083</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1621050058</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1621050422</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1621050834</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1621050281</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1621050753</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1621050188</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1621050283</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1621050113</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1621050203</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1621050384</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1621050817</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1621050210</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1621050434</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1621050240</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1621050729</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1621050798</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>